--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -522,7 +522,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -530,23 +530,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -554,10 +555,10 @@
   <cols>
     <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="44.140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.42578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -948,7 +949,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
@@ -968,7 +969,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
@@ -2723,273 +2724,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E83A9C0D-6381-4BC8-A22F-C9F8217FE22E}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075C6504-5AAA-4ED0-B81B-0EB2EE96EDA7}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A983D7A-4ADB-45EE-AEF5-E25FBDC1B5EF}"/>
 </file>
--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -465,9 +465,6 @@
   </si>
   <si>
     <t>Dati della trascrizione</t>
-  </si>
-  <si>
-    <t>Data richiesta trascrizione</t>
   </si>
   <si>
     <t>Riassunto</t>
@@ -547,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2655,7 +2652,7 @@
         <v>74</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2663,19 +2660,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -2683,10 +2680,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>8</v>
@@ -2695,29 +2692,9 @@
         <v>78</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F108" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -95,6 +95,48 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Model Atto Estero</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Descrizione documento</t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
     <t>Dati decesso</t>
   </si>
   <si>
@@ -188,27 +230,9 @@
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
     <t>evento.trascrizioneMorte.atto.enteEstero</t>
   </si>
   <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -366,30 +390,6 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>Atto da trascrivere</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte.attoEstero.enteEstero</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>Descrizione documento</t>
-  </si>
-  <si>
-    <t>descrizione</t>
   </si>
   <si>
     <t>Coniuge</t>
@@ -806,7 +806,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -826,7 +826,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -866,7 +866,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
@@ -906,7 +906,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
@@ -920,19 +920,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -940,19 +940,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -960,19 +960,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -980,19 +980,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -1000,19 +1000,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -1020,19 +1020,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -1040,19 +1040,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -1060,19 +1060,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>60</v>
@@ -1100,16 +1100,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>62</v>
@@ -1120,16 +1120,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>64</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>65</v>
@@ -1149,7 +1149,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>66</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>67</v>
@@ -1169,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>68</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>69</v>
@@ -1189,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>70</v>
@@ -1200,19 +1200,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1220,19 +1220,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1240,19 +1240,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1260,19 +1260,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1280,19 +1280,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1300,19 +1300,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1320,19 +1320,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1340,19 +1340,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1360,19 +1360,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1380,19 +1380,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1400,19 +1400,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1420,19 +1420,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1440,19 +1440,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1460,19 +1460,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1480,19 +1480,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1500,19 +1500,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1520,19 +1520,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1540,19 +1540,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1560,19 +1560,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1580,19 +1580,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1600,19 +1600,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1620,19 +1620,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1640,19 +1640,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1660,19 +1660,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1680,19 +1680,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1700,19 +1700,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1720,19 +1720,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1740,19 +1740,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1763,7 +1763,7 @@
         <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -1772,7 +1772,7 @@
         <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1783,7 +1783,7 @@
         <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -1792,7 +1792,7 @@
         <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1803,7 +1803,7 @@
         <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -1812,7 +1812,7 @@
         <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1823,7 +1823,7 @@
         <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -1832,7 +1832,7 @@
         <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1852,7 +1852,7 @@
         <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1872,7 +1872,7 @@
         <v>127</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1892,7 +1892,7 @@
         <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1912,7 +1912,7 @@
         <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1932,7 +1932,7 @@
         <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1952,7 +1952,7 @@
         <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1972,7 +1972,7 @@
         <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1992,7 +1992,7 @@
         <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2012,7 +2012,7 @@
         <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2032,7 +2032,7 @@
         <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2052,7 +2052,7 @@
         <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2072,7 +2072,7 @@
         <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2092,7 +2092,7 @@
         <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2112,7 +2112,7 @@
         <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2132,7 +2132,7 @@
         <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2203,7 +2203,7 @@
         <v>149</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -2212,7 +2212,7 @@
         <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2223,7 +2223,7 @@
         <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -2232,7 +2232,7 @@
         <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2243,7 +2243,7 @@
         <v>149</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2263,7 +2263,7 @@
         <v>149</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
@@ -2272,7 +2272,7 @@
         <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2292,7 +2292,7 @@
         <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2312,7 +2312,7 @@
         <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2332,7 +2332,7 @@
         <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2352,7 +2352,7 @@
         <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2372,7 +2372,7 @@
         <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2392,7 +2392,7 @@
         <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2412,7 +2412,7 @@
         <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2432,7 +2432,7 @@
         <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2452,7 +2452,7 @@
         <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2472,7 +2472,7 @@
         <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2492,7 +2492,7 @@
         <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2512,7 +2512,7 @@
         <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2532,7 +2532,7 @@
         <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2552,7 +2552,7 @@
         <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2572,7 +2572,7 @@
         <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2649,7 +2649,7 @@
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>152</v>
@@ -2669,7 +2669,7 @@
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>155</v>
@@ -2689,7 +2689,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>157</v>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -95,18 +95,285 @@
     <t>minuto</t>
   </si>
   <si>
-    <t>Model Atto Estero</t>
+    <t>Dati decesso</t>
+  </si>
+  <si>
+    <t>Data morte</t>
+  </si>
+  <si>
+    <t>evento.datiDiMorte</t>
+  </si>
+  <si>
+    <t>dataMorte</t>
+  </si>
+  <si>
+    <t>Ora</t>
+  </si>
+  <si>
+    <t>oraMorte</t>
+  </si>
+  <si>
+    <t>Minuti</t>
+  </si>
+  <si>
+    <t>minutoMorte</t>
+  </si>
+  <si>
+    <t>Data presunta inizio</t>
+  </si>
+  <si>
+    <t>dataPresuntaMorteDa</t>
+  </si>
+  <si>
+    <t>Data presunta fine</t>
+  </si>
+  <si>
+    <t>dataPresuntaMorteA</t>
+  </si>
+  <si>
+    <t>Note data e ora presunta</t>
+  </si>
+  <si>
+    <t>testoDataPresuntaMorte</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>luogoMorte</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStatoMorte</t>
+  </si>
+  <si>
+    <t>Stato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzoMorte</t>
+  </si>
+  <si>
+    <t>Autorità mittente</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.atto.enteEstero</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
   </si>
   <si>
     <t>Nome ente</t>
   </si>
   <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente</t>
+  </si>
+  <si>
+    <t>idProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Provincia ente - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaEnte</t>
+  </si>
+  <si>
+    <t>Comune ente</t>
+  </si>
+  <si>
+    <t>idComuneEnte</t>
+  </si>
+  <si>
+    <t>Comune ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Data richiesta</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte</t>
+  </si>
+  <si>
+    <t>dataComunicazione</t>
+  </si>
+  <si>
+    <t>Deceduto</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Codice Fiscale</t>
+  </si>
+  <si>
+    <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato Nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità   - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato Residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo Residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Atto da trascrivere</t>
+  </si>
+  <si>
     <t>evento.trascrizioneMorte.attoEstero.enteEstero</t>
   </si>
   <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
     <t>Stato ente</t>
   </si>
   <si>
@@ -119,277 +386,10 @@
     <t>nomeNazioneEnte</t>
   </si>
   <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
     <t>Descrizione documento</t>
   </si>
   <si>
     <t>descrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Dati decesso</t>
-  </si>
-  <si>
-    <t>Data morte</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>Minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Data presunta inizio</t>
-  </si>
-  <si>
-    <t>dataPresuntaMorteDa</t>
-  </si>
-  <si>
-    <t>Data presunta fine</t>
-  </si>
-  <si>
-    <t>dataPresuntaMorteA</t>
-  </si>
-  <si>
-    <t>Note data e ora presunta</t>
-  </si>
-  <si>
-    <t>testoDataPresuntaMorte</t>
-  </si>
-  <si>
-    <t>Luogo</t>
-  </si>
-  <si>
-    <t>luogoMorte</t>
-  </si>
-  <si>
-    <t>Stato</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>Indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Autorità mittente</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte.atto.enteEstero</t>
-  </si>
-  <si>
-    <t>Provincia ente</t>
-  </si>
-  <si>
-    <t>idProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Provincia ente - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaEnte</t>
-  </si>
-  <si>
-    <t>Comune ente</t>
-  </si>
-  <si>
-    <t>idComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Data richiesta</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte</t>
-  </si>
-  <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Deceduto</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalità   - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato Residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo Residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
   </si>
   <si>
     <t>Coniuge</t>
@@ -806,7 +806,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -826,7 +826,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -846,7 +846,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -866,7 +866,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
@@ -906,7 +906,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
@@ -920,19 +920,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -940,19 +940,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -960,19 +960,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -980,19 +980,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -1000,19 +1000,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -1020,19 +1020,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -1040,19 +1040,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -1060,19 +1060,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>60</v>
@@ -1100,16 +1100,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>62</v>
@@ -1120,16 +1120,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>64</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>65</v>
@@ -1149,7 +1149,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>66</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>67</v>
@@ -1169,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>68</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>69</v>
@@ -1189,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>70</v>
@@ -1200,19 +1200,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1220,19 +1220,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1240,19 +1240,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1260,19 +1260,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1280,19 +1280,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1300,19 +1300,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1320,19 +1320,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1340,19 +1340,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1360,19 +1360,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1380,19 +1380,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1400,19 +1400,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1420,19 +1420,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1440,19 +1440,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1460,19 +1460,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1480,19 +1480,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1500,19 +1500,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1520,19 +1520,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1540,19 +1540,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1560,19 +1560,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1580,19 +1580,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1600,19 +1600,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1620,19 +1620,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1640,19 +1640,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1660,19 +1660,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1680,19 +1680,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1700,19 +1700,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1720,19 +1720,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1740,19 +1740,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1763,7 +1763,7 @@
         <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
@@ -1772,7 +1772,7 @@
         <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1783,7 +1783,7 @@
         <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
@@ -1792,7 +1792,7 @@
         <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1803,7 +1803,7 @@
         <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
@@ -1812,7 +1812,7 @@
         <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1823,7 +1823,7 @@
         <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -1832,7 +1832,7 @@
         <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1852,7 +1852,7 @@
         <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1872,7 +1872,7 @@
         <v>127</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1892,7 +1892,7 @@
         <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1912,7 +1912,7 @@
         <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1932,7 +1932,7 @@
         <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1952,7 +1952,7 @@
         <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1972,7 +1972,7 @@
         <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1992,7 +1992,7 @@
         <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2012,7 +2012,7 @@
         <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2032,7 +2032,7 @@
         <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2052,7 +2052,7 @@
         <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2072,7 +2072,7 @@
         <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2092,7 +2092,7 @@
         <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2112,7 +2112,7 @@
         <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2132,7 +2132,7 @@
         <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2203,7 +2203,7 @@
         <v>149</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -2212,7 +2212,7 @@
         <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2223,7 +2223,7 @@
         <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -2232,7 +2232,7 @@
         <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2243,7 +2243,7 @@
         <v>149</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -2252,7 +2252,7 @@
         <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2263,7 +2263,7 @@
         <v>149</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
@@ -2272,7 +2272,7 @@
         <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2292,7 +2292,7 @@
         <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2312,7 +2312,7 @@
         <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2332,7 +2332,7 @@
         <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2352,7 +2352,7 @@
         <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2372,7 +2372,7 @@
         <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2392,7 +2392,7 @@
         <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2412,7 +2412,7 @@
         <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2432,7 +2432,7 @@
         <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2452,7 +2452,7 @@
         <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2472,7 +2472,7 @@
         <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2492,7 +2492,7 @@
         <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2512,7 +2512,7 @@
         <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2532,7 +2532,7 @@
         <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2552,7 +2552,7 @@
         <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2572,7 +2572,7 @@
         <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2649,7 +2649,7 @@
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>152</v>
@@ -2669,7 +2669,7 @@
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>155</v>
@@ -2689,7 +2689,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>157</v>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -185,30 +185,252 @@
     <t>indirizzoMorte</t>
   </si>
   <si>
+    <t>Deceduto</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Codice Fiscale</t>
+  </si>
+  <si>
+    <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato Nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità   - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato Residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune Residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo Residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Atto da trascrivere</t>
+  </si>
+  <si>
+    <t>Nome ente</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoEstero.enteEstero</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
+    <t>Data formazione documento</t>
+  </si>
+  <si>
+    <t>dataTrascrizione</t>
+  </si>
+  <si>
+    <t>Descrizione documento</t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
+  <si>
+    <t>Estremi documento</t>
+  </si>
+  <si>
+    <t>estremiDocumento</t>
+  </si>
+  <si>
+    <t>Coniuge</t>
+  </si>
+  <si>
+    <t>evento.coniuge</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Unito civilmente</t>
+  </si>
+  <si>
     <t>Autorità mittente</t>
   </si>
   <si>
-    <t>Data formazione documento</t>
-  </si>
-  <si>
     <t>evento.trascrizioneMorte.atto.enteEstero</t>
   </si>
   <si>
-    <t>dataTrascrizione</t>
-  </si>
-  <si>
-    <t>Estremi documento</t>
-  </si>
-  <si>
-    <t>estremiDocumento</t>
-  </si>
-  <si>
-    <t>Nome ente</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
-  </si>
-  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -233,241 +455,25 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>Data richiesta</t>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Dati della trascrizione</t>
+  </si>
+  <si>
+    <t>Riassunto</t>
   </si>
   <si>
     <t>evento.trascrizioneMorte</t>
-  </si>
-  <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Deceduto</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Codice Fiscale</t>
-  </si>
-  <si>
-    <t>codiceFiscale</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalità   - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato Residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune Residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo Residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>Atto da trascrivere</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte.attoEstero.enteEstero</t>
-  </si>
-  <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
-    <t>Descrizione documento</t>
-  </si>
-  <si>
-    <t>descrizione</t>
-  </si>
-  <si>
-    <t>Coniuge</t>
-  </si>
-  <si>
-    <t>evento.coniuge</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Unito civilmente</t>
-  </si>
-  <si>
-    <t>Dati della trascrizione</t>
-  </si>
-  <si>
-    <t>Riassunto</t>
   </si>
   <si>
     <t>testoLibero</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -554,7 +560,7 @@
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1086,7 +1092,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>59</v>
@@ -1126,7 +1132,7 @@
         <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>59</v>
@@ -1146,7 +1152,7 @@
         <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>59</v>
@@ -1166,7 +1172,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>59</v>
@@ -1186,7 +1192,7 @@
         <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>59</v>
@@ -1206,7 +1212,7 @@
         <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>59</v>
@@ -1226,13 +1232,13 @@
         <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1240,19 +1246,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1260,19 +1266,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1280,19 +1286,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1300,19 +1306,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1320,19 +1326,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1340,19 +1346,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1360,19 +1366,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1380,19 +1386,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1400,19 +1406,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1420,19 +1426,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1440,19 +1446,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1460,19 +1466,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1480,19 +1486,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1500,19 +1506,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1520,19 +1526,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1540,19 +1546,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1560,19 +1566,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1580,19 +1586,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1600,19 +1606,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1620,19 +1626,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1640,19 +1646,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1660,19 +1666,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1680,19 +1686,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1700,19 +1706,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1720,19 +1726,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1740,19 +1746,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1760,19 +1766,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1780,19 +1786,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1800,19 +1806,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1820,19 +1826,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1840,19 +1846,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1860,19 +1866,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1880,19 +1886,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1900,19 +1906,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1940,19 +1946,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1980,19 +1986,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2000,19 +2006,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2040,19 +2046,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2060,19 +2066,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2080,19 +2086,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2100,19 +2106,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2120,19 +2126,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2140,19 +2146,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2160,19 +2166,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2180,19 +2186,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2200,19 +2206,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2220,19 +2226,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2240,19 +2246,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2260,19 +2266,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2280,19 +2286,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2300,19 +2306,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2320,19 +2326,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2340,19 +2346,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2360,19 +2366,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2380,19 +2386,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2400,19 +2406,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2420,19 +2426,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2440,19 +2446,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2460,19 +2466,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2500,19 +2506,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2520,19 +2526,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2540,19 +2546,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2560,19 +2566,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2580,7 +2586,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>143</v>
@@ -2589,7 +2595,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>144</v>
@@ -2600,7 +2606,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>145</v>
@@ -2609,7 +2615,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>146</v>
@@ -2620,7 +2626,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>147</v>
@@ -2629,7 +2635,7 @@
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>148</v>
@@ -2640,19 +2646,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -2660,19 +2666,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -2680,7 +2686,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>156</v>
@@ -2689,12 +2695,32 @@
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F107" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -359,6 +365,9 @@
     <t>evento.coniuge</t>
   </si>
   <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
@@ -423,6 +432,9 @@
   </si>
   <si>
     <t>Unito civilmente</t>
+  </si>
+  <si>
+    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -550,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -562,6 +574,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -583,125 +596,146 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -723,2005 +757,2308 @@
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -1436,7 +1436,7 @@
         <v>83</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>61</v>
@@ -1459,7 +1459,7 @@
         <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>61</v>
@@ -1482,7 +1482,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>61</v>
@@ -1505,7 +1505,7 @@
         <v>89</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>61</v>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,40 +32,43 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Dichiarazione di conformità</t>
+  </si>
+  <si>
+    <t>Atto di morte (in originale)</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Traduzione atto di morte</t>
+  </si>
+  <si>
+    <t>Certificazione sostitutiva della documentazione</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Nota di trasmissione da parte dell’autorità consolare o diplomatica</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Dichiarazione di conformità</t>
-  </si>
-  <si>
-    <t>Atto di morte (in originale)</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Traduzione atto di morte</t>
-  </si>
-  <si>
-    <t>Certificazione sostitutiva della documentazione</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -758,2307 +761,2307 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -368,7 +368,7 @@
     <t>evento.coniuge</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,4,6,7,8,9)</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -437,7 +437,7 @@
     <t>Unito civilmente</t>
   </si>
   <si>
-    <t>{evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)}</t>
+    <t>evento.intestatari[0].idstatocivile,in,(1,2,3,4,8,9)</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -577,7 +577,7 @@
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="45.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -65,7 +65,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193</t>
+    <t>193.3</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>
@@ -320,6 +320,24 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>Dati della trascrizione</t>
+  </si>
+  <si>
+    <t>Data richiesta trascrizione</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte</t>
+  </si>
+  <si>
+    <t>dataComunicazione</t>
+  </si>
+  <si>
+    <t>Riassunto</t>
+  </si>
+  <si>
+    <t>testoLibero</t>
+  </si>
+  <si>
     <t>Atto da trascrivere</t>
   </si>
   <si>
@@ -480,18 +498,6 @@
   </si>
   <si>
     <t>nomeAnagraficaConsolato</t>
-  </si>
-  <si>
-    <t>Dati della trascrizione</t>
-  </si>
-  <si>
-    <t>Riassunto</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneMorte</t>
-  </si>
-  <si>
-    <t>testoLibero</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -565,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1686,19 +1692,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1715,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1778,1077 +1784,1077 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2859,19 +2865,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2882,19 +2888,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2905,19 +2911,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2928,19 +2934,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2951,19 +2957,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2974,19 +2980,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2997,16 +3003,16 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>159</v>
@@ -3020,19 +3026,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3043,7 +3049,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>163</v>
@@ -3061,6 +3067,29 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Dichiarazione di conformità</t>
+    <t>Atto estero di nascita originale o copia autentica</t>
   </si>
   <si>
     <t>Atto di morte (in originale)</t>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="169">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,9 +47,6 @@
     <t/>
   </si>
   <si>
-    <t>Atto estero di nascita originale o copia autentica</t>
-  </si>
-  <si>
     <t>Atto di morte (in originale)</t>
   </si>
   <si>
@@ -188,6 +185,12 @@
     <t>nomeComuneMorte</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Indirizzo</t>
   </si>
   <si>
@@ -264,6 +267,9 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -571,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -640,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -660,10 +666,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -686,7 +692,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -703,13 +709,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -725,730 +731,730 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>85</v>
@@ -1457,21 +1463,21 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>87</v>
@@ -1480,21 +1486,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>89</v>
@@ -1503,21 +1509,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>91</v>
@@ -1526,21 +1532,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>93</v>
@@ -1549,21 +1555,21 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>95</v>
@@ -1572,21 +1578,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>97</v>
@@ -1595,21 +1601,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>99</v>
@@ -1618,21 +1624,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>101</v>
@@ -1641,44 +1647,44 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>107</v>
@@ -1687,44 +1693,44 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>113</v>
@@ -1733,12 +1739,12 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
@@ -1747,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1756,12 +1762,12 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
@@ -1770,7 +1776,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1779,1065 +1785,1065 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99">
@@ -2845,22 +2851,22 @@
         <v>148</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="100">
@@ -2868,22 +2874,22 @@
         <v>148</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="101">
@@ -2891,22 +2897,22 @@
         <v>148</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="102">
@@ -2914,183 +2920,275 @@
         <v>148</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E109" s="2" t="s">
+      <c r="D112" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>23</v>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="202">
   <si>
     <t>Sezione</t>
   </si>
@@ -519,6 +519,105 @@
   </si>
   <si>
     <t>descrizionestatocivile</t>
+  </si>
+  <si>
+    <t>Atto di nascita del deceduto</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneMorte.attoNascitaDeceduto</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -577,17 +676,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.12890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.7265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="44.13671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.0546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.32421875" customWidth="true" bestFit="true"/>
   </cols>
@@ -3191,6 +3290,351 @@
         <v>22</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="210">
   <si>
     <t>Sezione</t>
   </si>
@@ -324,6 +324,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -676,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1774,19 +1798,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1821,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1844,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1867,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1890,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1913,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1936,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1959,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1982,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1981,1169 +2005,1169 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3154,19 +3178,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3177,19 +3201,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3200,7 +3224,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>160</v>
@@ -3209,7 +3233,7 @@
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>161</v>
@@ -3223,7 +3247,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>162</v>
@@ -3232,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>163</v>
@@ -3246,19 +3270,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3269,19 +3293,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3292,122 +3316,122 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>182</v>
@@ -3416,7 +3440,7 @@
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>183</v>
@@ -3425,12 +3449,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>184</v>
@@ -3439,136 +3463,136 @@
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>195</v>
@@ -3577,61 +3601,153 @@
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E128" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="211">
   <si>
     <t>Sezione</t>
   </si>
@@ -221,6 +221,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -437,10 +443,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -700,7 +703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1390,7 +1393,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>63</v>
@@ -1482,7 +1485,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>63</v>
@@ -1571,7 +1574,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -1580,7 +1583,7 @@
         <v>63</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1594,7 +1597,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -1890,19 +1893,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1913,16 +1916,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>117</v>
@@ -1936,19 +1939,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1959,16 +1962,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>123</v>
@@ -1982,7 +1985,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>124</v>
@@ -1991,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>125</v>
@@ -2005,19 +2008,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2031,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2051,16 +2054,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>129</v>
@@ -2074,16 +2077,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>131</v>
@@ -2097,145 +2100,145 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>137</v>
@@ -2244,21 +2247,21 @@
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>138</v>
@@ -2267,21 +2270,21 @@
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>139</v>
@@ -2290,21 +2293,21 @@
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>140</v>
@@ -2313,573 +2316,573 @@
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>141</v>
@@ -2888,21 +2891,21 @@
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>142</v>
@@ -2911,332 +2914,332 @@
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3247,19 +3250,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3270,19 +3273,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3293,19 +3296,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3316,19 +3319,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3339,19 +3342,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3362,19 +3365,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3385,19 +3388,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3408,346 +3411,415 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="213">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -703,7 +709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1939,16 +1945,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>119</v>
@@ -1962,19 +1968,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1985,16 +1991,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>125</v>
@@ -2008,7 +2014,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>126</v>
@@ -2017,7 +2023,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>127</v>
@@ -2031,19 +2037,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2054,19 +2060,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2077,16 +2083,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>131</v>
@@ -2100,16 +2106,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>133</v>
@@ -2123,375 +2129,375 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>146</v>
@@ -2500,21 +2506,21 @@
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>147</v>
@@ -2523,21 +2529,21 @@
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>148</v>
@@ -2546,21 +2552,21 @@
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>149</v>
@@ -2569,21 +2575,21 @@
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>150</v>
@@ -2592,21 +2598,21 @@
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>151</v>
@@ -2615,228 +2621,228 @@
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>139</v>
@@ -2845,21 +2851,21 @@
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>140</v>
@@ -2868,21 +2874,21 @@
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>141</v>
@@ -2891,21 +2897,21 @@
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>142</v>
@@ -2914,113 +2920,113 @@
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>145</v>
@@ -3029,200 +3035,200 @@
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110">
@@ -3230,22 +3236,22 @@
         <v>159</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="111">
@@ -3253,22 +3259,22 @@
         <v>159</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="112">
@@ -3276,39 +3282,39 @@
         <v>159</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3319,19 +3325,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3342,19 +3348,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3365,19 +3371,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3388,19 +3394,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3411,19 +3417,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3434,19 +3440,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3457,19 +3463,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3480,346 +3486,415 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
+      <c r="B138" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="215">
   <si>
     <t>Sezione</t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -709,7 +715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2477,7 +2483,7 @@
         <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
@@ -2486,7 +2492,7 @@
         <v>137</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2500,7 +2506,7 @@
         <v>136</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
@@ -2509,7 +2515,7 @@
         <v>137</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2523,7 +2529,7 @@
         <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -2532,7 +2538,7 @@
         <v>137</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2546,7 +2552,7 @@
         <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -2555,7 +2561,7 @@
         <v>137</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2569,7 +2575,7 @@
         <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -2578,7 +2584,7 @@
         <v>137</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2592,7 +2598,7 @@
         <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -2601,7 +2607,7 @@
         <v>137</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2615,7 +2621,7 @@
         <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -2624,7 +2630,7 @@
         <v>137</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2638,7 +2644,7 @@
         <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -2647,7 +2653,7 @@
         <v>137</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2661,7 +2667,7 @@
         <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -2670,7 +2676,7 @@
         <v>137</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2727,11 +2733,11 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
@@ -2739,67 +2745,67 @@
         <v>137</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -2808,21 +2814,21 @@
         <v>137</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -2831,21 +2837,21 @@
         <v>137</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -2854,21 +2860,21 @@
         <v>137</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -2877,21 +2883,21 @@
         <v>137</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
@@ -2900,21 +2906,21 @@
         <v>137</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
@@ -2923,21 +2929,21 @@
         <v>137</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
@@ -2946,21 +2952,21 @@
         <v>137</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
@@ -2969,21 +2975,21 @@
         <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
@@ -2992,21 +2998,21 @@
         <v>137</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
@@ -3015,21 +3021,21 @@
         <v>137</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
@@ -3038,21 +3044,21 @@
         <v>137</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
@@ -3061,18 +3067,18 @@
         <v>137</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>146</v>
@@ -3084,21 +3090,21 @@
         <v>137</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
@@ -3107,18 +3113,18 @@
         <v>137</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>148</v>
@@ -3130,18 +3136,18 @@
         <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>149</v>
@@ -3153,18 +3159,18 @@
         <v>137</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>150</v>
@@ -3176,18 +3182,18 @@
         <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>151</v>
@@ -3199,18 +3205,18 @@
         <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>152</v>
@@ -3222,18 +3228,18 @@
         <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>153</v>
@@ -3245,21 +3251,21 @@
         <v>137</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -3268,21 +3274,21 @@
         <v>137</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
@@ -3291,13 +3297,13 @@
         <v>137</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
@@ -3305,22 +3311,22 @@
         <v>161</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="114">
@@ -3328,39 +3334,39 @@
         <v>161</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3371,19 +3377,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3394,19 +3400,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3417,19 +3423,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3440,19 +3446,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3463,19 +3469,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3486,19 +3492,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3509,19 +3515,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3532,19 +3538,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3555,346 +3561,392 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="B140" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="217">
   <si>
     <t>Sezione</t>
   </si>
@@ -627,6 +627,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -715,7 +721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3883,39 +3889,39 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>212</v>
@@ -3929,7 +3935,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>213</v>
@@ -3938,7 +3944,7 @@
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>214</v>
@@ -3947,6 +3953,29 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="216">
   <si>
     <t>Sezione</t>
   </si>
@@ -284,7 +284,7 @@
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalità   - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -447,9 +447,6 @@
   </si>
   <si>
     <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Comprensione</t>
@@ -2193,7 +2190,7 @@
         <v>65</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>137</v>
@@ -2466,7 +2463,7 @@
         <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
@@ -2489,16 +2486,16 @@
         <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2535,7 +2532,7 @@
         <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
@@ -2558,7 +2555,7 @@
         <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -2581,7 +2578,7 @@
         <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -2604,7 +2601,7 @@
         <v>136</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
@@ -2627,7 +2624,7 @@
         <v>136</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
@@ -2650,7 +2647,7 @@
         <v>136</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -2673,7 +2670,7 @@
         <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
@@ -2696,16 +2693,16 @@
         <v>136</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2719,16 +2716,16 @@
         <v>136</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2742,16 +2739,16 @@
         <v>136</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2762,7 +2759,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>62</v>
@@ -2780,18 +2777,18 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>137</v>
@@ -2803,12 +2800,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>69</v>
@@ -2826,12 +2823,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>71</v>
@@ -2849,12 +2846,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>73</v>
@@ -2872,12 +2869,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>139</v>
@@ -2895,12 +2892,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>140</v>
@@ -2918,12 +2915,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>141</v>
@@ -2941,12 +2938,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>142</v>
@@ -2964,12 +2961,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>143</v>
@@ -2987,12 +2984,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>144</v>
@@ -3010,12 +3007,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>57</v>
@@ -3033,12 +3030,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>88</v>
@@ -3056,15 +3053,15 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
@@ -3079,35 +3076,35 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>92</v>
@@ -3125,15 +3122,15 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
@@ -3148,15 +3145,15 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
@@ -3171,15 +3168,15 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
@@ -3194,15 +3191,15 @@
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
@@ -3217,15 +3214,15 @@
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
@@ -3240,15 +3237,15 @@
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
@@ -3263,15 +3260,15 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
@@ -3286,81 +3283,81 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>123</v>
@@ -3369,7 +3366,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>125</v>
@@ -3383,7 +3380,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>126</v>
@@ -3392,7 +3389,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>127</v>
@@ -3406,7 +3403,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>128</v>
@@ -3415,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>129</v>
@@ -3429,19 +3426,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3452,19 +3449,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3475,19 +3472,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3498,19 +3495,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3521,19 +3518,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3544,19 +3541,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3567,10 +3564,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3579,7 +3576,7 @@
         <v>63</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3590,10 +3587,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3602,7 +3599,7 @@
         <v>63</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3613,154 +3610,154 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>21</v>
@@ -3769,44 +3766,44 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>24</v>
@@ -3815,116 +3812,116 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3935,19 +3932,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3958,19 +3955,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -53,7 +53,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Traduzione atto di morte</t>
+    <t>Atto di costituzione e traduzione</t>
   </si>
   <si>
     <t>Certificazione sostitutiva della documentazione</t>
@@ -810,7 +810,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/morte/Morte_007.xlsx
+++ b/docs/Mapping_casi_uso/morte/Morte_007.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="220">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -718,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1454,7 +1466,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>63</v>
@@ -1477,7 +1489,7 @@
         <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>63</v>
@@ -1523,7 +1535,7 @@
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>63</v>
@@ -1546,7 +1558,7 @@
         <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>63</v>
@@ -1612,7 +1624,7 @@
         <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -1621,7 +1633,7 @@
         <v>63</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1635,7 +1647,7 @@
         <v>61</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -1644,7 +1656,7 @@
         <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1658,7 +1670,7 @@
         <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -1954,19 +1966,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1977,19 +1989,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2012,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -2023,19 +2035,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2046,16 +2058,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>129</v>
@@ -2069,19 +2081,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2092,19 +2104,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2115,19 +2127,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2138,7 +2150,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>134</v>
@@ -2147,7 +2159,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>135</v>
@@ -2161,214 +2173,214 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>143</v>
@@ -2377,21 +2389,21 @@
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>144</v>
@@ -2400,182 +2412,182 @@
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>149</v>
@@ -2584,44 +2596,44 @@
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>151</v>
@@ -2630,21 +2642,21 @@
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>152</v>
@@ -2653,21 +2665,21 @@
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>153</v>
@@ -2676,21 +2688,21 @@
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>154</v>
@@ -2699,815 +2711,815 @@
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3518,19 +3530,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3541,19 +3553,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3564,19 +3576,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3587,19 +3599,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3610,369 +3622,507 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E141" s="2" t="s">
+      <c r="E145" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>22</v>
       </c>
     </row>
